--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F936CE-921B-4394-93EA-241151A1A05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D560F6A-23CA-472D-A993-1C1697753498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="147">
   <si>
     <t>Action</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Returns a list of all attributes and the count of unique values within the DataFrame</t>
-  </si>
-  <si>
-    <t>df.unique()</t>
   </si>
   <si>
     <t>Duplicate Values</t>
@@ -372,9 +369,6 @@
     <t>df['attribute1'] == 'value'</t>
   </si>
   <si>
-    <t>New DataFrame</t>
-  </si>
-  <si>
     <t>Following on from the previous note, you can use that standalone function to ensure the output remains a data frame as the previous note is only calling that index and tesing it</t>
   </si>
   <si>
@@ -397,6 +391,93 @@
   </si>
   <si>
     <t>This allows you to convert a non date datatype into a date datatype.  It has assumed we did not name the pandas library</t>
+  </si>
+  <si>
+    <t>df.nunique()</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>Filtered DataFrame</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>np.repeat('value', x)</t>
+  </si>
+  <si>
+    <t>This is used to create a new array for a specific column volauen, in theory you coul also apply some kind of fixed column attribute</t>
+  </si>
+  <si>
+    <t>Repeat Array</t>
+  </si>
+  <si>
+    <t>Add Column</t>
+  </si>
+  <si>
+    <t>To add a column to your existing dataframe, in this example its using either a list or array assigned to variable 'variable'</t>
+  </si>
+  <si>
+    <t>df['newcolumn'] = variable</t>
+  </si>
+  <si>
+    <t>Append DataFrames</t>
+  </si>
+  <si>
+    <t>To add one dataframe to the bottom of another, if you have the same data structure this allows yout to basically combine two files into one</t>
+  </si>
+  <si>
+    <t>df.append(df2)</t>
+  </si>
+  <si>
+    <t>Append Index</t>
+  </si>
+  <si>
+    <t>Same as above but eliminates the duplicated indexing which is a created part of the df in pandas (similar to writing to a csv)</t>
+  </si>
+  <si>
+    <t>df.append(df2, ignore_index = True)</t>
+  </si>
+  <si>
+    <t>Rename Column</t>
+  </si>
+  <si>
+    <t>To change the name of a single column in a dataframe, because its based on an array you need to use a different function</t>
+  </si>
+  <si>
+    <t>df.rename(columns={'oldname1':'newname1'}, inplace = True)</t>
+  </si>
+  <si>
+    <t>GroupBy</t>
+  </si>
+  <si>
+    <t>Use this function to group the data by a particular attribute.  In the example we assumed we then wanted to calculate the mean of this group.</t>
+  </si>
+  <si>
+    <t>df.groupby('attribute1').mean()</t>
+  </si>
+  <si>
+    <t>Multiple GroupBy</t>
+  </si>
+  <si>
+    <t>Replace the single attribute with a list to group and subgroup various attributes</t>
+  </si>
+  <si>
+    <t>df.groupby(['attribute1', 'attribute2']).mean()</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>df['newattribute1'] = pd.cut(df['oldattribute1'], ['0','5','10','20'], labels = ['item1', 'item2', 'item3'])</t>
+  </si>
+  <si>
+    <t>This is used to covnvert a continous variable like a numerical measurement into a categorical variable using set ranges and names.  This assumes you want to split the data into 3 buckets from 0-5, 6-10, 11-20.  Each of these lists could be from a previously named list.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +575,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,127 +897,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC762E-03EC-4CF3-8290-C68B393AB46A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="7" customWidth="1"/>
     <col min="2" max="2" width="44" style="8" customWidth="1"/>
-    <col min="3" max="3" width="54" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -941,150 +1059,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="8"/>
-    <col min="3" max="3" width="56.5703125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="50.7109375" style="3"/>
+    <col min="3" max="3" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="50.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>62</v>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1094,104 +1319,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="51.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1201,160 +1494,200 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D560F6A-23CA-472D-A993-1C1697753498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711089B-B716-49DE-9C0D-628525ACE8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>Action</t>
   </si>
@@ -478,6 +478,74 @@
   </si>
   <si>
     <t>This is used to covnvert a continous variable like a numerical measurement into a categorical variable using set ranges and names.  This assumes you want to split the data into 3 buckets from 0-5, 6-10, 11-20.  Each of these lists could be from a previously named list.</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>df.query('attribute1 == "value"')
+df.query('attribute2  &gt; 500')</t>
+  </si>
+  <si>
+    <t>Similar to masks, its another way to filter down the rows in a particular dataset. Can be used on both an integer or a string</t>
+  </si>
+  <si>
+    <t>To bring in the full matplotlib features other than just the inline pandas tools</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>Matplotlib Import</t>
+  </si>
+  <si>
+    <t>Matplotlib Bar</t>
+  </si>
+  <si>
+    <t>plt.bar([x1,x2,x3], [y1,y2,y3])</t>
+  </si>
+  <si>
+    <t>To create a bar chart in matplotlib instead of just pure pandas. X1-x3 are simply the x values for the x axis and y1-y3 is the values to be plotted and represents the height of the bars</t>
+  </si>
+  <si>
+    <t>Matplotlib xticks</t>
+  </si>
+  <si>
+    <t>To rename the x ticks for a bar chart in matplot lib.  As with all other things a prenamed list could be used instead of in function.  This can be done as a separate line of code or in the bar function itself</t>
+  </si>
+  <si>
+    <t>plt.xticks([x1, x2, x3], ['a', 'b', 'c'])
+plt.bar([1, 2, 3], [224, 620, 425], tick_label=['a', 'b', 'c'])</t>
+  </si>
+  <si>
+    <t>Matplotlib Title</t>
+  </si>
+  <si>
+    <t>Matplotlib X Lable</t>
+  </si>
+  <si>
+    <t>Matplotlib Y Lable</t>
+  </si>
+  <si>
+    <t>To name the visual and insert a title for the graph</t>
+  </si>
+  <si>
+    <t>To name the x axis of the graph</t>
+  </si>
+  <si>
+    <t>To name the y axis of the graph</t>
+  </si>
+  <si>
+    <t>plt.title('Some Title')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('Some X Label')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Some Y Label')</t>
   </si>
 </sst>
 </file>
@@ -900,7 +968,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,43 +1340,57 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1321,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,16 +1576,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="51.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="62.7109375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1690,6 +1772,90 @@
         <v>106</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711089B-B716-49DE-9C0D-628525ACE8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3353FD-3F60-4C4E-8E3A-5D53EC4C2717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3353FD-3F60-4C4E-8E3A-5D53EC4C2717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8833E0B-FAF7-4644-86B2-BBB59B102719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>Action</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Returns a list of all records with a boolean output indicating the second instance of a record as duplicate</t>
-  </si>
-  <si>
-    <t>df.duplicated()</t>
   </si>
   <si>
     <t>Descriptive Statistics</t>
@@ -517,10 +514,6 @@
     <t>To rename the x ticks for a bar chart in matplot lib.  As with all other things a prenamed list could be used instead of in function.  This can be done as a separate line of code or in the bar function itself</t>
   </si>
   <si>
-    <t>plt.xticks([x1, x2, x3], ['a', 'b', 'c'])
-plt.bar([1, 2, 3], [224, 620, 425], tick_label=['a', 'b', 'c'])</t>
-  </si>
-  <si>
     <t>Matplotlib Title</t>
   </si>
   <si>
@@ -546,6 +539,25 @@
   </si>
   <si>
     <t>plt.ylabel('Some Y Label')</t>
+  </si>
+  <si>
+    <t>plt.xticks([1,2,3], ['a', 'b', 'c'])
+plt.bar([1, 2, 3], [x1, x2, x3], tick_label=['a', 'b', 'c'])</t>
+  </si>
+  <si>
+    <t>Null Values</t>
+  </si>
+  <si>
+    <t>df.duplicated()
+sum(df.duplicated())</t>
+  </si>
+  <si>
+    <t>Returns the full dataframe filled in with each field as either null or not.  The second line of code identifies all rows where every field is null, so full missing data and the 3rd row counts this.</t>
+  </si>
+  <si>
+    <t>df.isnull()
+df.isnull().any(axis=1)
+sum(df.isnull().any(axis=1)</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1002,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1016,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -1030,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1044,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1058,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -1072,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
@@ -1086,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>27</v>
@@ -1100,7 +1112,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -1114,7 +1126,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>34</v>
@@ -1127,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1164,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -1178,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1192,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
@@ -1206,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>39</v>
@@ -1220,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>44</v>
@@ -1234,10 +1246,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1248,150 +1260,162 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1431,142 +1455,142 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1578,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1606,254 +1630,254 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8833E0B-FAF7-4644-86B2-BBB59B102719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313CB93-56ED-4A64-A953-4FFAFD0F5F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="Cleaning Data" sheetId="3" r:id="rId3"/>
     <sheet name="Plotting Data" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Reading CSV Files'!$A$1:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="175">
   <si>
     <t>Action</t>
   </si>
@@ -558,6 +564,16 @@
     <t>df.isnull()
 df.isnull().any(axis=1)
 sum(df.isnull().any(axis=1)</t>
+  </si>
+  <si>
+    <t>Drop Columns</t>
+  </si>
+  <si>
+    <t>To drop any column based on predefined list or an in code list</t>
+  </si>
+  <si>
+    <t>df.drop(columns=['name1','name4','name10'], inplace = True)
+df.drop(['name1','name4','name10'], axis =1, inplace = True)</t>
   </si>
 </sst>
 </file>
@@ -977,10 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC762E-03EC-4CF3-8290-C68B393AB46A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,15 +1153,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,15 +1443,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
-  <dimension ref="A1:D11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,101 +1536,119 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,5 +1927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313CB93-56ED-4A64-A953-4FFAFD0F5F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B0DC8-3390-4797-A56C-662B30B94A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Plotting Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Reading CSV Files'!$A$1:$D$10</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
   <si>
     <t>Action</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Drop Duplicated</t>
-  </si>
-  <si>
-    <t>df.dropduplicates(inplace=True)</t>
   </si>
   <si>
     <t>Previously we looked at how to identify duplicates.  If you want to remove them entirely from the data set you can use this function. This assumes the inplace statement is default</t>
@@ -574,6 +571,18 @@
   <si>
     <t>df.drop(columns=['name1','name4','name10'], inplace = True)
 df.drop(['name1','name4','name10'], axis =1, inplace = True)</t>
+  </si>
+  <si>
+    <t>Drop Null</t>
+  </si>
+  <si>
+    <t>This will remove any record that has a null value in it, I'm not sure if this is a full null row or just any null value</t>
+  </si>
+  <si>
+    <t>df.dropna(inplace=True)</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates(inplace=True)</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1033,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1047,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -1061,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1075,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1089,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -1103,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
@@ -1117,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>27</v>
@@ -1131,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -1145,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>34</v>
@@ -1153,7 +1162,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1164,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1199,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -1213,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1227,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
@@ -1241,7 +1250,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>39</v>
@@ -1255,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>44</v>
@@ -1269,10 +1278,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1283,22 +1292,22 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1309,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>51</v>
@@ -1323,7 +1332,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>58</v>
@@ -1337,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>59</v>
@@ -1351,7 +1360,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>60</v>
@@ -1359,91 +1368,91 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1452,10 +1461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1488,7 +1497,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>63</v>
@@ -1502,7 +1511,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>66</v>
@@ -1510,16 +1519,16 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1527,116 +1536,130 @@
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1667,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1675,254 +1698,254 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B0DC8-3390-4797-A56C-662B30B94A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2198F91-1C60-4F29-9021-42B665BB055E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
     <sheet name="Data Assessment" sheetId="2" r:id="rId2"/>
     <sheet name="Cleaning Data" sheetId="3" r:id="rId3"/>
     <sheet name="Plotting Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Other Stuff" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Reading CSV Files'!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="203">
   <si>
     <t>Action</t>
   </si>
@@ -306,9 +307,6 @@
     <t>Value Count</t>
   </si>
   <si>
-    <t>This returns the count of unique values for each column/attribute</t>
-  </si>
-  <si>
     <t>Bar Chart</t>
   </si>
   <si>
@@ -334,9 +332,6 @@
   </si>
   <si>
     <t>df['attribute1'].hist();</t>
-  </si>
-  <si>
-    <t>df['attribute1'].value_counts();</t>
   </si>
   <si>
     <t>df['attribute1'].value_counts().plot(kind = 'bar',figsize =(8,8));</t>
@@ -583,13 +578,106 @@
   </si>
   <si>
     <t>df.drop_duplicates(inplace=True)</t>
+  </si>
+  <si>
+    <t>String &gt; Integer</t>
+  </si>
+  <si>
+    <t>This just counts the records in each particular categorical variable very quickly</t>
+  </si>
+  <si>
+    <t>df['attribute1'].value_counts()</t>
+  </si>
+  <si>
+    <t>This is not a function itself but just a method to convert a string to an integer while stripping some characters from the front and from the back</t>
+  </si>
+  <si>
+    <t>df['attribute1'] = df['attribute1'].astype(int)
+df['attribute1'] = df['attribute1'].str[1:-5].astype(int)
+df['attribute1'] = df['attribute1'].str.extract('(\d+)').astype(int)</t>
+  </si>
+  <si>
+    <t>Split Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To split a field into two and put one element into one dataframe and the other in another dataframe.  This is super complicated and currently assumes that there is a / sperator.  New DataFrames were copied already </t>
+  </si>
+  <si>
+    <t>Copy Mask</t>
+  </si>
+  <si>
+    <t>To copy a mask saved to a variable into its own dataframe for manipulation.  This step was duplicated to create two dataframes to manipulate data</t>
+  </si>
+  <si>
+    <t>Drop Mask</t>
+  </si>
+  <si>
+    <t>You can use this cool feature to drop a masked subset of data within a dataframe</t>
+  </si>
+  <si>
+    <t>Complex Mask</t>
+  </si>
+  <si>
+    <t>To create a mask used in several other steps in cutting dropping and appending data</t>
+  </si>
+  <si>
+    <t>Multiple Conversion</t>
+  </si>
+  <si>
+    <t>To change the data type of multiple values you can use a for loop in the conversion process based on a list of column names and a placeholder value</t>
+  </si>
+  <si>
+    <t>selected_columns = [field_one, field_two, field_three]
+for c in selected_columns:
+    df[c] = df[c].astype(float)</t>
+  </si>
+  <si>
+    <t>cm = df[df['attribute1'].str.contains('/')]</t>
+  </si>
+  <si>
+    <t>df1 = cm.copy() 
+df2 = cm.copy()</t>
+  </si>
+  <si>
+    <t>df.drop(cm.index, inplace=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split_columns = [field_one, field_two, field_three]
+for c in split_columns:
+    df1[c] = df1[c].apply(lambda x: x.split("/")[0])
+    df2[c] = df2[c].apply(lambda x: x.split("/")[1])
+</t>
+  </si>
+  <si>
+    <t>Pandas and SQL</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/getting_started/comparison/comparison_with_sql.html</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>pd.merge(left, right, how='inner', on=None, left_on=None, right_on=None,
+         left_index=False, right_index=False, sort=True,
+         suffixes=('_x', '_y'), copy=True, indicator=False,
+         validate=None)</t>
+  </si>
+  <si>
+    <t>This is the entire single merge file with all options as default and can be amended to any particular situation</t>
+  </si>
+  <si>
+    <t>Pandas and Merge Continued</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/user_guide/merging.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +697,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -652,10 +748,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,8 +785,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,7 +1107,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1042,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1056,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -1070,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1084,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1098,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -1112,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
@@ -1126,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>27</v>
@@ -1140,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -1154,7 +1253,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>34</v>
@@ -1171,10 +1270,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1208,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -1222,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1236,7 +1335,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
@@ -1250,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>39</v>
@@ -1264,7 +1363,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>44</v>
@@ -1272,182 +1371,196 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="C19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1574,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1497,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>63</v>
@@ -1511,7 +1624,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>66</v>
@@ -1519,16 +1632,16 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1539,38 +1652,38 @@
         <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1581,7 +1694,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>71</v>
@@ -1589,72 +1702,170 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>132</v>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1668,10 +1879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1704,7 +1915,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>74</v>
@@ -1712,13 +1923,13 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>77</v>
@@ -1726,13 +1937,13 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>80</v>
@@ -1743,10 +1954,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>79</v>
@@ -1760,7 +1971,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>83</v>
@@ -1774,63 +1985,63 @@
         <v>85</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>100</v>
@@ -1841,115 +2052,143 @@
         <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46C441-78E8-4FB6-BF56-9F9FCDF6D553}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E52CF261-8074-4503-9863-2F0C50A45B8C}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{675225E3-460E-4DDC-8AE0-D50081F2DE8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2198F91-1C60-4F29-9021-42B665BB055E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D29D7-3C58-4EAB-9D04-11E4E0EC8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>Action</t>
   </si>
@@ -671,6 +671,15 @@
   </si>
   <si>
     <t>https://pandas.pydata.org/pandas-docs/stable/user_guide/merging.html</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>this allows you to round a float before converting to an integer</t>
+  </si>
+  <si>
+    <t>df.round({'attribute1': 0, 'attribute2': 0})</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1116,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1281,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1574,10 +1583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,6 +1875,20 @@
       </c>
       <c r="D20" s="9" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2147,15 +2170,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46C441-78E8-4FB6-BF56-9F9FCDF6D553}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -2190,5 +2216,6 @@
     <hyperlink ref="A7" r:id="rId2" xr:uid="{675225E3-460E-4DDC-8AE0-D50081F2DE8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D29D7-3C58-4EAB-9D04-11E4E0EC8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CFE5A-8E62-49DC-AB83-5C7F6540AAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="209">
   <si>
     <t>Action</t>
   </si>
@@ -680,6 +680,16 @@
   </si>
   <si>
     <t>df.round({'attribute1': 0, 'attribute2': 0})</t>
+  </si>
+  <si>
+    <t>Split Column</t>
+  </si>
+  <si>
+    <t>This can be used to split a column that has multiple values in the various rows seprated by some arbitrary value like ":" or "|".  This will allow you to create a series of new columns off the back of the split out data and delete the original merged data</t>
+  </si>
+  <si>
+    <t>Series.str.split(pat=None, n=-1, expand=False)
+df.str.split("|", n = 1, expand = True)</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,29 +1875,43 @@
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>205</v>
       </c>
     </row>

--- a/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Project 2 - Investigate a Data Set/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 2 - Investigate a Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CFE5A-8E62-49DC-AB83-5C7F6540AAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422A395F-65EA-4CF8-8177-785B9D45521A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Other Stuff" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Reading CSV Files'!$A$1:$D$10</definedName>
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,8 +1291,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,9 +1928,7 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2240,6 +2238,6 @@
     <hyperlink ref="A7" r:id="rId2" xr:uid="{675225E3-460E-4DDC-8AE0-D50081F2DE8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>